--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E2170-AEA4-4AD3-8172-42BCF6FDC915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5E50A-131B-429D-A8FD-5DBCF472B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>NewA1</t>
   </si>
@@ -95,6 +96,21 @@
   </si>
   <si>
     <t>NewB10</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B11</t>
   </si>
 </sst>
 </file>
@@ -454,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3039B75-5B57-4A54-9F56-2B4FF168AE10}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -483,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -491,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -538,11 +554,14 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -644,4 +663,223 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE0660-C8F1-4496-B3B5-CA3D784C2E24}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5E50A-131B-429D-A8FD-5DBCF472B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C57FDF-31BE-48FC-AEB5-24A808DDACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t>NewA1</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>B4</t>
-  </si>
-  <si>
-    <t>B11</t>
   </si>
 </sst>
 </file>
@@ -470,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3039B75-5B57-4A54-9F56-2B4FF168AE10}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,11 +550,6 @@
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C57FDF-31BE-48FC-AEB5-24A808DDACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DEA4E1-8E2E-48B5-978D-C5270A5F9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="1650" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>NewA1</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>B4</t>
+  </si>
+  <si>
+    <t>hahaha</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,6 +553,9 @@
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DEA4E1-8E2E-48B5-978D-C5270A5F9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907DF8C-30BA-44B0-99BA-303FE9FFC185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>NewA1</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>hahaha</t>
+  </si>
+  <si>
+    <t>NewF14</t>
+  </si>
+  <si>
+    <t>NewG14</t>
+  </si>
+  <si>
+    <t>NewG13</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3039B75-5B57-4A54-9F56-2B4FF168AE10}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -665,35 +674,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE0660-C8F1-4496-B3B5-CA3D784C2E24}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -706,11 +695,11 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -723,11 +712,11 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -740,11 +729,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -757,11 +746,11 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -774,11 +763,11 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -791,11 +780,11 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -808,11 +797,11 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -825,11 +814,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -842,11 +831,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -859,11 +848,11 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -875,6 +864,37 @@
       </c>
       <c r="E12" t="s">
         <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907DF8C-30BA-44B0-99BA-303FE9FFC185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65B03DD-4489-4C48-B34B-98484C15630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DiffExcel/Test/NewFile.xlsx
+++ b/DiffExcel/Test/NewFile.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\ExcelBDD\DiffExcel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65B03DD-4489-4C48-B34B-98484C15630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A4B7B-4B30-4841-AC17-03F4739FBCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5BF0347B-583A-4762-AF9C-435A9EE60BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>NewA1</t>
   </si>
@@ -676,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAE0660-C8F1-4496-B3B5-CA3D784C2E24}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -900,4 +901,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AB4DFF-E318-4E75-B048-FEE3807307F8}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>